--- a/11_集計表.xlsx
+++ b/11_集計表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>市場調査アンケート</t>
     <rPh sb="0" eb="4">
@@ -82,6 +82,93 @@
     <t>調査日：</t>
     <rPh sb="0" eb="3">
       <t>チョウサビ</t>
+    </rPh>
+    <phoneticPr fontId="20"/>
+  </si>
+  <si>
+    <t>買い物</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モノ</t>
+    </rPh>
+    <phoneticPr fontId="20"/>
+  </si>
+  <si>
+    <t>飲食・グルメ</t>
+    <rPh sb="0" eb="2">
+      <t>インショク</t>
+    </rPh>
+    <phoneticPr fontId="20"/>
+  </si>
+  <si>
+    <t>旅行</t>
+    <rPh sb="0" eb="2">
+      <t>リョコウ</t>
+    </rPh>
+    <phoneticPr fontId="20"/>
+  </si>
+  <si>
+    <t>貯蓄</t>
+    <rPh sb="0" eb="2">
+      <t>チョチク</t>
+    </rPh>
+    <phoneticPr fontId="20"/>
+  </si>
+  <si>
+    <t>ローン・借金返済</t>
+    <rPh sb="4" eb="6">
+      <t>シャッキン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘンサイ</t>
+    </rPh>
+    <phoneticPr fontId="20"/>
+  </si>
+  <si>
+    <t>生活費の補填</t>
+    <rPh sb="0" eb="3">
+      <t>セイカツヒ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ホテン</t>
+    </rPh>
+    <phoneticPr fontId="20"/>
+  </si>
+  <si>
+    <t>投資</t>
+    <rPh sb="0" eb="2">
+      <t>トウシ</t>
+    </rPh>
+    <phoneticPr fontId="20"/>
+  </si>
+  <si>
+    <t>合計</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="20"/>
+  </si>
+  <si>
+    <t>調査対象：全国20歳～59歳の男女</t>
+    <rPh sb="0" eb="2">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ゼンコク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ダンジョ</t>
     </rPh>
     <phoneticPr fontId="20"/>
   </si>
@@ -90,6 +177,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="184" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -475,7 +565,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -633,8 +723,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="44">
+  <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -767,8 +866,11 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="38" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -781,20 +883,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="12" xfId="44" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="10" xfId="44" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="34" borderId="10" xfId="44" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="12" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="0" fillId="34" borderId="10" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="44">
+  <cellStyles count="45">
     <cellStyle name="20% - アクセント 1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - アクセント 2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - アクセント 3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -828,6 +954,7 @@
     <cellStyle name="悪い" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="計算" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="警告文" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="桁区切り" xfId="44" builtinId="6"/>
     <cellStyle name="見出し 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="見出し 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="見出し 3" xfId="4" builtinId="18" customBuiltin="1"/>
@@ -1151,13 +1278,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="18.69921875" customWidth="1"/>
+    <col min="2" max="5" width="9.69921875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
@@ -1172,95 +1303,239 @@
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="E2" s="8">
+        <v>45132</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
     </row>
     <row r="5" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="10">
+        <v>1002</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1223</v>
+      </c>
+      <c r="D6" s="10">
+        <f>SUM(B6:C6)</f>
+        <v>2225</v>
+      </c>
+      <c r="E6" s="13">
+        <f>ROUND((D6/$D$13),2)</f>
+        <v>0.11</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="11">
+        <v>138</v>
+      </c>
+      <c r="C7" s="11">
+        <v>166</v>
+      </c>
+      <c r="D7" s="11">
+        <f>SUM(B7:C7)</f>
+        <v>304</v>
+      </c>
+      <c r="E7" s="13">
+        <f t="shared" ref="E7:E12" si="0">ROUND((D7/$D$13),2)</f>
+        <v>0.02</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="11">
+        <v>1494</v>
+      </c>
+      <c r="C8" s="11">
+        <v>1577</v>
+      </c>
+      <c r="D8" s="11">
+        <f>SUM(B8:C8)</f>
+        <v>3071</v>
+      </c>
+      <c r="E8" s="13">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="11">
+        <v>3571</v>
+      </c>
+      <c r="C9" s="11">
+        <v>3746</v>
+      </c>
+      <c r="D9" s="11">
+        <f>SUM(B9:C9)</f>
+        <v>7317</v>
+      </c>
+      <c r="E9" s="13">
+        <f t="shared" si="0"/>
+        <v>0.37</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="11">
+        <v>1468</v>
+      </c>
+      <c r="C10" s="11">
+        <v>1096</v>
+      </c>
+      <c r="D10" s="11">
+        <f>SUM(B10:C10)</f>
+        <v>2564</v>
+      </c>
+      <c r="E10" s="13">
+        <f t="shared" si="0"/>
+        <v>0.13</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="11">
+        <v>1812</v>
+      </c>
+      <c r="C11" s="11">
+        <v>1927</v>
+      </c>
+      <c r="D11" s="11">
+        <f>SUM(B11:C11)</f>
+        <v>3739</v>
+      </c>
+      <c r="E11" s="13">
+        <f t="shared" si="0"/>
+        <v>0.19</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="11">
+        <v>427</v>
+      </c>
+      <c r="C12" s="11">
+        <v>192</v>
+      </c>
+      <c r="D12" s="11">
+        <f>SUM(B12:C12)</f>
+        <v>619</v>
+      </c>
+      <c r="E12" s="13">
+        <f t="shared" si="0"/>
+        <v>0.03</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="A13" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="12">
+        <f>SUM(B6:B12)</f>
+        <v>9912</v>
+      </c>
+      <c r="C13" s="12">
+        <f>SUM(C6:C12)</f>
+        <v>9927</v>
+      </c>
+      <c r="D13" s="12">
+        <f>SUM(D6:D12)</f>
+        <v>19839</v>
+      </c>
+      <c r="E13" s="14">
+        <f>SUM(E6:E12)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B14" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:E3"/>
+    <mergeCell ref="B14:E14"/>
   </mergeCells>
   <phoneticPr fontId="20"/>
+  <conditionalFormatting sqref="B6:C12">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E05382C9-9D40-490F-9EF5-96BA3FC9BEA9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E05382C9-9D40-490F-9EF5-96BA3FC9BEA9}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFFB628"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B6:C12</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>